--- a/data/line/filtered_europe_2018_edit.xlsx
+++ b/data/line/filtered_europe_2018_edit.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="305" documentId="8_{D986D3E2-7F2B-4CB5-984B-4CBEE472991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223A49E2-DEC6-46BB-B65B-B5FFC602BC82}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{9BCCDFD7-5DB7-496E-9A9F-5AF656E07684}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="5" xr2:uid="{9BCCDFD7-5DB7-496E-9A9F-5AF656E07684}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="7" r:id="rId1"/>
@@ -199,6 +199,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +560,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +797,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1103,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,7 +1408,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1593,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
